--- a/back/src/main/resources/网站数据.xlsx
+++ b/back/src/main/resources/网站数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ERPHM\antdesign\develop\bi\back\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265E1830-2D60-45A4-AA65-2738D69A0BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92D1548-84E6-428C-91DC-02E32182DB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
@@ -34,40 +34,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>整数</t>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>2月</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3月</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4月</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -77,7 +87,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="18"/>
       <color theme="1"/>
@@ -85,12 +95,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -109,12 +113,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -139,18 +137,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -465,63 +464,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="23.25"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="10.765625" style="5"/>
+    <col min="4" max="4" width="10.765625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>40</v>
+      <c r="B6" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
